--- a/Code/Results/Cases/Case_2_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.45131120396503</v>
+        <v>14.38867885856291</v>
       </c>
       <c r="C2">
-        <v>11.12391622015105</v>
+        <v>13.35300972362557</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.08807928528034</v>
+        <v>17.32057726772298</v>
       </c>
       <c r="F2">
-        <v>24.62401439495503</v>
+        <v>35.81139896153815</v>
       </c>
       <c r="G2">
-        <v>21.14751657451259</v>
+        <v>27.443320671177</v>
       </c>
       <c r="H2">
-        <v>8.333555502843815</v>
+        <v>13.96263339366994</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.263781731068519</v>
+        <v>7.510709608096124</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.966630662245754</v>
+        <v>12.66341527937687</v>
       </c>
       <c r="M2">
-        <v>12.43288499551203</v>
+        <v>16.19574036529395</v>
       </c>
       <c r="N2">
-        <v>12.36622541630804</v>
+        <v>18.17675094538633</v>
       </c>
       <c r="O2">
-        <v>13.56211464601886</v>
+        <v>21.07757178974234</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.2179385699473</v>
+        <v>13.96629500281782</v>
       </c>
       <c r="C3">
-        <v>10.96262436887596</v>
+        <v>13.31289895905496</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.12805425278343</v>
+        <v>17.36275781979108</v>
       </c>
       <c r="F3">
-        <v>24.16589846764832</v>
+        <v>35.85350203704393</v>
       </c>
       <c r="G3">
-        <v>20.60687059850645</v>
+        <v>27.46509393264731</v>
       </c>
       <c r="H3">
-        <v>8.358776844596145</v>
+        <v>14.00474043387731</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.211086097569413</v>
+        <v>7.497327120999556</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.812249798151504</v>
+        <v>12.65978683440345</v>
       </c>
       <c r="M3">
-        <v>11.88375735767808</v>
+        <v>16.1047820188265</v>
       </c>
       <c r="N3">
-        <v>12.4905444009139</v>
+        <v>18.22244835448211</v>
       </c>
       <c r="O3">
-        <v>13.47991623602588</v>
+        <v>21.1377559453253</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.41477591214915</v>
+        <v>13.70194218217979</v>
       </c>
       <c r="C4">
-        <v>10.86305516605945</v>
+        <v>13.2885408467938</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.15695014756029</v>
+        <v>17.39069504065285</v>
       </c>
       <c r="F4">
-        <v>23.90006384902627</v>
+        <v>35.88756571033765</v>
       </c>
       <c r="G4">
-        <v>20.2928348047311</v>
+        <v>27.48761922331633</v>
       </c>
       <c r="H4">
-        <v>8.379819449562133</v>
+        <v>14.03285630918482</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.178394290072458</v>
+        <v>7.489025356693467</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.718640175627482</v>
+        <v>12.65901708404278</v>
       </c>
       <c r="M4">
-        <v>11.53654245300798</v>
+        <v>16.0506510436668</v>
       </c>
       <c r="N4">
-        <v>12.5702752439801</v>
+        <v>18.25223925446672</v>
       </c>
       <c r="O4">
-        <v>13.44140543852915</v>
+        <v>21.17935611996302</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.07588986891351</v>
+        <v>13.59311733966401</v>
       </c>
       <c r="C5">
-        <v>10.82237643770543</v>
+        <v>13.27868650479176</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.1697967546098</v>
+        <v>17.40259278979891</v>
       </c>
       <c r="F5">
-        <v>23.79567756680308</v>
+        <v>35.90351022332381</v>
       </c>
       <c r="G5">
-        <v>20.16946520794473</v>
+        <v>27.49909552103829</v>
       </c>
       <c r="H5">
-        <v>8.389744602209131</v>
+        <v>14.04488238661984</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.164992780354808</v>
+        <v>7.485621451177679</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.680832347531934</v>
+        <v>12.65907159794855</v>
       </c>
       <c r="M5">
-        <v>11.39271273791679</v>
+        <v>16.02904035816973</v>
       </c>
       <c r="N5">
-        <v>12.60361274643845</v>
+        <v>18.26481578044961</v>
       </c>
       <c r="O5">
-        <v>13.42863386019431</v>
+        <v>21.19747464907024</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.01891638834853</v>
+        <v>13.57498558448069</v>
       </c>
       <c r="C6">
-        <v>10.8156164382553</v>
+        <v>13.27705464657734</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.17199396903117</v>
+        <v>17.40459940940721</v>
       </c>
       <c r="F6">
-        <v>23.77858391608786</v>
+        <v>35.90628234916137</v>
       </c>
       <c r="G6">
-        <v>20.14926016515103</v>
+        <v>27.50113969894203</v>
       </c>
       <c r="H6">
-        <v>8.391472845433796</v>
+        <v>14.04691364651381</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.162762832944728</v>
+        <v>7.485054988435034</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.674576078023855</v>
+        <v>12.65910293060307</v>
       </c>
       <c r="M6">
-        <v>11.36869485444874</v>
+        <v>16.02547944684833</v>
       </c>
       <c r="N6">
-        <v>12.60919932639473</v>
+        <v>18.26693049099638</v>
       </c>
       <c r="O6">
-        <v>13.42668700975438</v>
+        <v>21.20055357555364</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.41025258243407</v>
+        <v>13.70047876194002</v>
       </c>
       <c r="C7">
-        <v>10.86250693586297</v>
+        <v>13.28840765195526</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.15711909355859</v>
+        <v>17.39085341953546</v>
       </c>
       <c r="F7">
-        <v>23.89864002499475</v>
+        <v>35.88777239230998</v>
       </c>
       <c r="G7">
-        <v>20.29115225177856</v>
+        <v>27.48776470431732</v>
       </c>
       <c r="H7">
-        <v>8.379947898810066</v>
+        <v>14.03301619493715</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.178213866859795</v>
+        <v>7.488979534317481</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.718128858594301</v>
+        <v>12.65901632648724</v>
       </c>
       <c r="M7">
-        <v>11.53461190652018</v>
+        <v>16.05035775904469</v>
       </c>
       <c r="N7">
-        <v>12.57072142745398</v>
+        <v>18.25240709743167</v>
       </c>
       <c r="O7">
-        <v>13.44122148321881</v>
+        <v>21.17959575445948</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.03552931771755</v>
+        <v>14.2441728692459</v>
       </c>
       <c r="C8">
-        <v>11.06843237818249</v>
+        <v>13.33912582105101</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.10094570821142</v>
+        <v>17.33469844866497</v>
       </c>
       <c r="F8">
-        <v>24.46288824007783</v>
+        <v>35.82421083547555</v>
       </c>
       <c r="G8">
-        <v>20.95744491389732</v>
+        <v>27.44892491508554</v>
       </c>
       <c r="H8">
-        <v>8.341069994371738</v>
+        <v>13.97668233210154</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.245685262735127</v>
+        <v>7.506113221421179</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.913180131988411</v>
+        <v>12.66186250747</v>
       </c>
       <c r="M8">
-        <v>12.24573718774774</v>
+        <v>16.16403126446057</v>
       </c>
       <c r="N8">
-        <v>12.40838010217586</v>
+        <v>18.1921483336444</v>
       </c>
       <c r="O8">
-        <v>13.53124103831412</v>
+        <v>21.09735745024443</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.86137663282216</v>
+        <v>15.2641593107929</v>
       </c>
       <c r="C9">
-        <v>11.46667809873142</v>
+        <v>13.44055625217452</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.02636051248807</v>
+        <v>17.24072467835708</v>
       </c>
       <c r="F9">
-        <v>25.68884215156755</v>
+        <v>35.76477478599995</v>
       </c>
       <c r="G9">
-        <v>22.40127483080707</v>
+        <v>27.44558006574687</v>
       </c>
       <c r="H9">
-        <v>8.311059664439687</v>
+        <v>13.8841666842063</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.375099734753057</v>
+        <v>7.53901910951183</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.303229241396163</v>
+        <v>12.678942860434</v>
       </c>
       <c r="M9">
-        <v>13.55347716714978</v>
+        <v>16.39984053492392</v>
       </c>
       <c r="N9">
-        <v>12.1174067867356</v>
+        <v>18.08769003163704</v>
       </c>
       <c r="O9">
-        <v>13.80614364040098</v>
+        <v>20.973059576474</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.72094279240131</v>
+        <v>15.97754604730559</v>
       </c>
       <c r="C10">
-        <v>11.75417262850594</v>
+        <v>13.51605074482988</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.994720152113354</v>
+        <v>17.1814892415271</v>
       </c>
       <c r="F10">
-        <v>26.6576501863841</v>
+        <v>35.76088027171566</v>
       </c>
       <c r="G10">
-        <v>23.53844772963154</v>
+        <v>27.48763595550621</v>
       </c>
       <c r="H10">
-        <v>8.320162091203787</v>
+        <v>13.82715046135472</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.468119546622797</v>
+        <v>7.562746967213966</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.5920524097243</v>
+        <v>12.69840246571009</v>
       </c>
       <c r="M10">
-        <v>14.45360086175047</v>
+        <v>16.57993681525885</v>
       </c>
       <c r="N10">
-        <v>11.920973863385</v>
+        <v>18.0192499487496</v>
       </c>
       <c r="O10">
-        <v>14.07234615458814</v>
+        <v>20.90440542734165</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.52068909308546</v>
+        <v>16.29284410711431</v>
       </c>
       <c r="C11">
-        <v>11.88351919920422</v>
+        <v>13.55055683733536</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.985681865759592</v>
+        <v>17.15666338692122</v>
       </c>
       <c r="F11">
-        <v>27.11207716630348</v>
+        <v>35.76773185352226</v>
       </c>
       <c r="G11">
-        <v>24.07077456874125</v>
+        <v>27.51642247962797</v>
       </c>
       <c r="H11">
-        <v>8.331712090757986</v>
+        <v>13.80359289861052</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.5099286639652</v>
+        <v>7.57343859146651</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.723469689060098</v>
+        <v>12.7087322607727</v>
       </c>
       <c r="M11">
-        <v>14.84869574529956</v>
+        <v>16.66312964091167</v>
       </c>
       <c r="N11">
-        <v>11.83555144775414</v>
+        <v>17.98990746909915</v>
       </c>
       <c r="O11">
-        <v>14.20815899747538</v>
+        <v>20.87811893861292</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.81695792998919</v>
+        <v>16.41080923968893</v>
       </c>
       <c r="C12">
-        <v>11.93226658221763</v>
+        <v>13.56364251584231</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.983057013234552</v>
+        <v>17.14756683959048</v>
       </c>
       <c r="F12">
-        <v>27.28603534325067</v>
+        <v>35.77156366749431</v>
       </c>
       <c r="G12">
-        <v>24.27438564278247</v>
+        <v>27.52870753808123</v>
       </c>
       <c r="H12">
-        <v>8.337204472163846</v>
+        <v>13.79501457570224</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.525682917085406</v>
+        <v>7.577472006410003</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.77320231091992</v>
+        <v>12.71285413558557</v>
       </c>
       <c r="M12">
-        <v>14.99616274496857</v>
+        <v>16.69479523381878</v>
       </c>
       <c r="N12">
-        <v>11.80378742013371</v>
+        <v>17.97905303392034</v>
       </c>
       <c r="O12">
-        <v>14.26175625074795</v>
+        <v>20.86887760864871</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.75344266547159</v>
+        <v>16.38546855521387</v>
       </c>
       <c r="C13">
-        <v>11.92177874938499</v>
+        <v>13.56082350935808</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.983586394842737</v>
+        <v>17.14951241033734</v>
       </c>
       <c r="F13">
-        <v>27.24848835436414</v>
+        <v>35.77068344343705</v>
       </c>
       <c r="G13">
-        <v>24.23044600072601</v>
+        <v>27.52600025336062</v>
       </c>
       <c r="H13">
-        <v>8.335970989277431</v>
+        <v>13.79684683807781</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.522293504459701</v>
+        <v>7.576604026525464</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.762493489829312</v>
+        <v>12.71195710440396</v>
       </c>
       <c r="M13">
-        <v>14.96449967048968</v>
+        <v>16.6879685819417</v>
       </c>
       <c r="N13">
-        <v>11.81060211321854</v>
+        <v>17.98137931418255</v>
       </c>
       <c r="O13">
-        <v>14.25011595054468</v>
+        <v>20.87083616698895</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.54519477117248</v>
+        <v>16.30257841937852</v>
       </c>
       <c r="C14">
-        <v>11.88753450041042</v>
+        <v>13.55163304975909</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.985449768748991</v>
+        <v>17.15590890932749</v>
       </c>
       <c r="F14">
-        <v>27.12635173410339</v>
+        <v>35.76802232144605</v>
       </c>
       <c r="G14">
-        <v>24.08748578621432</v>
+        <v>27.51740546734215</v>
       </c>
       <c r="H14">
-        <v>8.332141227830661</v>
+        <v>13.80288029089093</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.511226367215659</v>
+        <v>7.573770732234861</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.727562068364657</v>
+        <v>12.70906717043152</v>
       </c>
       <c r="M14">
-        <v>14.86087137023576</v>
+        <v>16.66573165017689</v>
       </c>
       <c r="N14">
-        <v>11.83292639761012</v>
+        <v>17.98900932271426</v>
       </c>
       <c r="O14">
-        <v>14.21252475472813</v>
+        <v>20.87734435407784</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.41678219713647</v>
+        <v>16.25161647903856</v>
       </c>
       <c r="C15">
-        <v>11.86652775077739</v>
+        <v>13.54600596385991</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.986695861624193</v>
+        <v>17.15986658567713</v>
       </c>
       <c r="F15">
-        <v>27.05178114250483</v>
+        <v>35.76655333915604</v>
       </c>
       <c r="G15">
-        <v>24.00017928112048</v>
+        <v>27.51232102427014</v>
       </c>
       <c r="H15">
-        <v>8.329942650069022</v>
+        <v>13.80662055489264</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.504437123468054</v>
+        <v>7.572033252157094</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.706160322943942</v>
+        <v>12.70732430828381</v>
       </c>
       <c r="M15">
-        <v>14.79711436766204</v>
+        <v>16.65213142936586</v>
       </c>
       <c r="N15">
-        <v>11.84667722590519</v>
+        <v>17.99371636333081</v>
       </c>
       <c r="O15">
-        <v>14.18978280906422</v>
+        <v>20.88142368188128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.66775357915899</v>
+        <v>15.95674573593061</v>
       </c>
       <c r="C16">
-        <v>11.74568829549378</v>
+        <v>13.51379859157555</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.995420937608175</v>
+        <v>17.18315430121409</v>
       </c>
       <c r="F16">
-        <v>26.62822002181699</v>
+        <v>35.76060581288294</v>
       </c>
       <c r="G16">
-        <v>23.50394988557151</v>
+        <v>27.48594866051286</v>
       </c>
       <c r="H16">
-        <v>8.319560910225762</v>
+        <v>13.82873790571613</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.465376592614366</v>
+        <v>7.562046138152676</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.583461402136939</v>
+        <v>12.69775693035331</v>
       </c>
       <c r="M16">
-        <v>14.42748402856151</v>
+        <v>16.57452375941626</v>
       </c>
       <c r="N16">
-        <v>11.9266370767123</v>
+        <v>18.02120353702351</v>
       </c>
       <c r="O16">
-        <v>14.06377116055875</v>
+        <v>20.90622296517596</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.1964653534063</v>
+        <v>15.77341126834829</v>
       </c>
       <c r="C17">
-        <v>11.67116976500802</v>
+        <v>13.4940790356729</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.00216457566623</v>
+        <v>17.1979833664694</v>
       </c>
       <c r="F17">
-        <v>26.37182227054472</v>
+        <v>35.75916415557869</v>
       </c>
       <c r="G17">
-        <v>23.20328138956936</v>
+        <v>27.4722406034881</v>
       </c>
       <c r="H17">
-        <v>8.315127552039201</v>
+        <v>13.84291579609636</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.441280870464059</v>
+        <v>7.555892769543503</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.508170477063089</v>
+        <v>12.69226451269285</v>
       </c>
       <c r="M17">
-        <v>14.1969839589262</v>
+        <v>16.52722424514687</v>
       </c>
       <c r="N17">
-        <v>11.97670980310814</v>
+        <v>18.03852433953284</v>
       </c>
       <c r="O17">
-        <v>13.99027511204605</v>
+        <v>20.92270428048616</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.92104234285475</v>
+        <v>15.6670993794447</v>
       </c>
       <c r="C18">
-        <v>11.62817500863323</v>
+        <v>13.48275250892499</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.00654569037351</v>
+        <v>17.20671228641539</v>
       </c>
       <c r="F18">
-        <v>26.22564525548469</v>
+        <v>35.75914683278504</v>
       </c>
       <c r="G18">
-        <v>23.03176598722206</v>
+        <v>27.4652652427387</v>
       </c>
       <c r="H18">
-        <v>8.313271802796491</v>
+        <v>13.85129448977729</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.427374315888926</v>
+        <v>7.55234391995963</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.464870004427558</v>
+        <v>12.68924463363759</v>
       </c>
       <c r="M18">
-        <v>14.06305695984441</v>
+        <v>16.50013919013833</v>
       </c>
       <c r="N18">
-        <v>12.0058795996103</v>
+        <v>18.04865544666364</v>
       </c>
       <c r="O18">
-        <v>13.94938460862839</v>
+        <v>20.93264921677556</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.82703975075352</v>
+        <v>15.63095919379366</v>
       </c>
       <c r="C19">
-        <v>11.61359560960291</v>
+        <v>13.47892036444657</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.00811450553376</v>
+        <v>17.20970205063876</v>
       </c>
       <c r="F19">
-        <v>26.17637779620205</v>
+        <v>35.75928047712195</v>
       </c>
       <c r="G19">
-        <v>22.97394200833959</v>
+        <v>27.46305974912855</v>
       </c>
       <c r="H19">
-        <v>8.312761088589493</v>
+        <v>13.8541698262885</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.422657826563286</v>
+        <v>7.551140709545955</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.450211202590467</v>
+        <v>12.68824613158394</v>
       </c>
       <c r="M19">
-        <v>14.01748249989645</v>
+        <v>16.49098992962109</v>
       </c>
       <c r="N19">
-        <v>12.01581891490925</v>
+        <v>18.05211464976271</v>
       </c>
       <c r="O19">
-        <v>13.93577554506015</v>
+        <v>20.93609626329745</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.24708459757061</v>
+        <v>15.79301762057138</v>
       </c>
       <c r="C20">
-        <v>11.67911642361376</v>
+        <v>13.49617662987566</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.00139451352642</v>
+        <v>17.19638412928633</v>
       </c>
       <c r="F20">
-        <v>26.39898279715124</v>
+        <v>35.75923361278766</v>
       </c>
       <c r="G20">
-        <v>23.2351419493073</v>
+        <v>27.4736057800181</v>
       </c>
       <c r="H20">
-        <v>8.315527258379088</v>
+        <v>13.84138335594033</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.4438508380043</v>
+        <v>7.55654880319275</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.516185093174339</v>
+        <v>12.69283479776727</v>
       </c>
       <c r="M20">
-        <v>14.22166137588625</v>
+        <v>16.53224704352389</v>
       </c>
       <c r="N20">
-        <v>11.97134113511855</v>
+        <v>18.03666306176902</v>
       </c>
       <c r="O20">
-        <v>13.9979554150609</v>
+        <v>20.92090164405651</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.60654023559916</v>
+        <v>16.32696489173724</v>
       </c>
       <c r="C21">
-        <v>11.89759940535332</v>
+        <v>13.55433203180982</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.984880576344999</v>
+        <v>17.15402184327126</v>
       </c>
       <c r="F21">
-        <v>27.1621760322834</v>
+        <v>35.76877040479773</v>
       </c>
       <c r="G21">
-        <v>24.12942254174873</v>
+        <v>27.51989243931647</v>
       </c>
       <c r="H21">
-        <v>8.333235337348819</v>
+        <v>13.80109882451951</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.5144792097626</v>
+        <v>7.574603358405457</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.737823427421729</v>
+        <v>12.70991032777705</v>
       </c>
       <c r="M21">
-        <v>14.891368335304</v>
+        <v>16.67225893074181</v>
       </c>
       <c r="N21">
-        <v>11.82635322473897</v>
+        <v>17.98676123651694</v>
       </c>
       <c r="O21">
-        <v>14.22350698409218</v>
+        <v>20.87541338380105</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.45671322705758</v>
+        <v>16.66754581092109</v>
       </c>
       <c r="C22">
-        <v>12.03901923138184</v>
+        <v>13.59244840217404</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.978750925606713</v>
+        <v>17.12811007075271</v>
       </c>
       <c r="F22">
-        <v>27.67186376385589</v>
+        <v>35.78221307100858</v>
       </c>
       <c r="G22">
-        <v>24.72566972970245</v>
+        <v>27.55820852251958</v>
       </c>
       <c r="H22">
-        <v>8.351353650771571</v>
+        <v>13.77676651869711</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.560182287002644</v>
+        <v>7.586313777172705</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.882473854275688</v>
+        <v>12.72229428058144</v>
       </c>
       <c r="M22">
-        <v>15.31652089286847</v>
+        <v>16.76470134265583</v>
       </c>
       <c r="N22">
-        <v>11.73500658263869</v>
+        <v>17.95564477343577</v>
       </c>
       <c r="O22">
-        <v>14.38357363349279</v>
+        <v>20.84983954245055</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.00644412027522</v>
+        <v>16.48657044025946</v>
       </c>
       <c r="C23">
-        <v>11.96367472858155</v>
+        <v>13.57209655416985</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.981586454814483</v>
+        <v>17.14177747039585</v>
       </c>
       <c r="F23">
-        <v>27.39886717166802</v>
+        <v>35.77437991298174</v>
       </c>
       <c r="G23">
-        <v>24.4064031613545</v>
+        <v>27.53702241327816</v>
       </c>
       <c r="H23">
-        <v>8.341067094996077</v>
+        <v>13.7895704159622</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.535833145392801</v>
+        <v>7.580072062178875</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.805301173628017</v>
+        <v>12.71557350350353</v>
       </c>
       <c r="M23">
-        <v>15.09077864533396</v>
+        <v>16.71528398318455</v>
       </c>
       <c r="N23">
-        <v>11.78344148035463</v>
+        <v>17.97211542750418</v>
       </c>
       <c r="O23">
-        <v>14.29696958953978</v>
+        <v>20.86310804040813</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.22421357483096</v>
+        <v>15.78415641652727</v>
       </c>
       <c r="C24">
-        <v>11.67552421395212</v>
+        <v>13.49522827446583</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.00174109052818</v>
+        <v>17.19710651052629</v>
       </c>
       <c r="F24">
-        <v>26.38669968627726</v>
+        <v>35.75919968322233</v>
       </c>
       <c r="G24">
-        <v>23.22073359736445</v>
+        <v>27.47298576259109</v>
       </c>
       <c r="H24">
-        <v>8.315344396483964</v>
+        <v>13.84207546307868</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.442689122245664</v>
+        <v>7.556252245209308</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.512561728263057</v>
+        <v>12.69257654253303</v>
       </c>
       <c r="M24">
-        <v>14.21050909955445</v>
+        <v>16.52997589825435</v>
       </c>
       <c r="N24">
-        <v>11.97376712038342</v>
+        <v>18.03750400605029</v>
       </c>
       <c r="O24">
-        <v>13.99447890751606</v>
+        <v>20.92171515331773</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.13521437587444</v>
+        <v>14.99402607784165</v>
       </c>
       <c r="C25">
-        <v>11.35971846659844</v>
+        <v>13.41292886530327</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.04257971088779</v>
+        <v>17.26442224593746</v>
       </c>
       <c r="F25">
-        <v>25.34486312316259</v>
+        <v>35.77386731021317</v>
       </c>
       <c r="G25">
-        <v>21.99671767977006</v>
+        <v>27.43866960807112</v>
       </c>
       <c r="H25">
-        <v>8.313924460555357</v>
+        <v>13.90727142272108</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.340430593952112</v>
+        <v>7.530194010368477</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.197150004097219</v>
+        <v>12.67310091788895</v>
       </c>
       <c r="M25">
-        <v>13.20987553770822</v>
+        <v>16.33477023785949</v>
       </c>
       <c r="N25">
-        <v>12.19312983928436</v>
+        <v>18.11448656746141</v>
       </c>
       <c r="O25">
-        <v>13.72077614192568</v>
+        <v>21.00271340667819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.38867885856291</v>
+        <v>18.45131120396503</v>
       </c>
       <c r="C2">
-        <v>13.35300972362557</v>
+        <v>11.12391622015094</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.32057726772298</v>
+        <v>10.08807928528034</v>
       </c>
       <c r="F2">
-        <v>35.81139896153815</v>
+        <v>24.62401439495512</v>
       </c>
       <c r="G2">
-        <v>27.443320671177</v>
+        <v>21.14751657451275</v>
       </c>
       <c r="H2">
-        <v>13.96263339366994</v>
+        <v>8.333555502843923</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.510709608096124</v>
+        <v>5.263781731068514</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.66341527937687</v>
+        <v>7.966630662245707</v>
       </c>
       <c r="M2">
-        <v>16.19574036529395</v>
+        <v>12.43288499551206</v>
       </c>
       <c r="N2">
-        <v>18.17675094538633</v>
+        <v>12.3662254163081</v>
       </c>
       <c r="O2">
-        <v>21.07757178974234</v>
+        <v>13.56211464601896</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.96629500281782</v>
+        <v>17.21793856994729</v>
       </c>
       <c r="C3">
-        <v>13.31289895905496</v>
+        <v>10.96262436887596</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.36275781979108</v>
+        <v>10.12805425278338</v>
       </c>
       <c r="F3">
-        <v>35.85350203704393</v>
+        <v>24.16589846764834</v>
       </c>
       <c r="G3">
-        <v>27.46509393264731</v>
+        <v>20.60687059850657</v>
       </c>
       <c r="H3">
-        <v>14.00474043387731</v>
+        <v>8.358776844596255</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.497327120999556</v>
+        <v>5.211086097569479</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.65978683440345</v>
+        <v>7.812249798151479</v>
       </c>
       <c r="M3">
-        <v>16.1047820188265</v>
+        <v>11.88375735767809</v>
       </c>
       <c r="N3">
-        <v>18.22244835448211</v>
+        <v>12.49054440091393</v>
       </c>
       <c r="O3">
-        <v>21.1377559453253</v>
+        <v>13.47991623602597</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.70194218217979</v>
+        <v>16.41477591214912</v>
       </c>
       <c r="C4">
-        <v>13.2885408467938</v>
+        <v>10.86305516605947</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.39069504065285</v>
+        <v>10.15695014756029</v>
       </c>
       <c r="F4">
-        <v>35.88756571033765</v>
+        <v>23.90006384902626</v>
       </c>
       <c r="G4">
-        <v>27.48761922331633</v>
+        <v>20.29283480473093</v>
       </c>
       <c r="H4">
-        <v>14.03285630918482</v>
+        <v>8.379819449562124</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.489025356693467</v>
+        <v>5.178394290072397</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.65901708404278</v>
+        <v>7.718640175627535</v>
       </c>
       <c r="M4">
-        <v>16.0506510436668</v>
+        <v>11.53654245300798</v>
       </c>
       <c r="N4">
-        <v>18.25223925446672</v>
+        <v>12.57027524398004</v>
       </c>
       <c r="O4">
-        <v>21.17935611996302</v>
+        <v>13.44140543852908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.59311733966401</v>
+        <v>16.07588986891349</v>
       </c>
       <c r="C5">
-        <v>13.27868650479176</v>
+        <v>10.82237643770577</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.40259278979891</v>
+        <v>10.16979675460991</v>
       </c>
       <c r="F5">
-        <v>35.90351022332381</v>
+        <v>23.79567756680322</v>
       </c>
       <c r="G5">
-        <v>27.49909552103829</v>
+        <v>20.16946520794473</v>
       </c>
       <c r="H5">
-        <v>14.04488238661984</v>
+        <v>8.389744602209182</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.485621451177679</v>
+        <v>5.164992780354845</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.65907159794855</v>
+        <v>7.680832347531918</v>
       </c>
       <c r="M5">
-        <v>16.02904035816973</v>
+        <v>11.39271273791679</v>
       </c>
       <c r="N5">
-        <v>18.26481578044961</v>
+        <v>12.60361274643851</v>
       </c>
       <c r="O5">
-        <v>21.19747464907024</v>
+        <v>13.42863386019436</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.57498558448069</v>
+        <v>16.01891638834853</v>
       </c>
       <c r="C6">
-        <v>13.27705464657734</v>
+        <v>10.81561643825518</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.40459940940721</v>
+        <v>10.17199396903118</v>
       </c>
       <c r="F6">
-        <v>35.90628234916137</v>
+        <v>23.77858391608787</v>
       </c>
       <c r="G6">
-        <v>27.50113969894203</v>
+        <v>20.14926016515111</v>
       </c>
       <c r="H6">
-        <v>14.04691364651381</v>
+        <v>8.391472845433796</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.485054988435034</v>
+        <v>5.162762832944791</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.65910293060307</v>
+        <v>7.674576078023854</v>
       </c>
       <c r="M6">
-        <v>16.02547944684833</v>
+        <v>11.36869485444876</v>
       </c>
       <c r="N6">
-        <v>18.26693049099638</v>
+        <v>12.60919932639473</v>
       </c>
       <c r="O6">
-        <v>21.20055357555364</v>
+        <v>13.42668700975447</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.70047876194002</v>
+        <v>16.41025258243396</v>
       </c>
       <c r="C7">
-        <v>13.28840765195526</v>
+        <v>10.86250693586348</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.39085341953546</v>
+        <v>10.15711909355889</v>
       </c>
       <c r="F7">
-        <v>35.88777239230998</v>
+        <v>23.89864002499492</v>
       </c>
       <c r="G7">
-        <v>27.48776470431732</v>
+        <v>20.29115225177868</v>
       </c>
       <c r="H7">
-        <v>14.03301619493715</v>
+        <v>8.379947898810121</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.488979534317481</v>
+        <v>5.178213866859957</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.65901632648724</v>
+        <v>7.718128858594326</v>
       </c>
       <c r="M7">
-        <v>16.05035775904469</v>
+        <v>11.53461190652026</v>
       </c>
       <c r="N7">
-        <v>18.25240709743167</v>
+        <v>12.57072142745405</v>
       </c>
       <c r="O7">
-        <v>21.17959575445948</v>
+        <v>13.44122148321892</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.2441728692459</v>
+        <v>18.03552931771755</v>
       </c>
       <c r="C8">
-        <v>13.33912582105101</v>
+        <v>11.0684323781825</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.33469844866497</v>
+        <v>10.10094570821155</v>
       </c>
       <c r="F8">
-        <v>35.82421083547555</v>
+        <v>24.46288824007788</v>
       </c>
       <c r="G8">
-        <v>27.44892491508554</v>
+        <v>20.95744491389728</v>
       </c>
       <c r="H8">
-        <v>13.97668233210154</v>
+        <v>8.341069994371731</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.506113221421179</v>
+        <v>5.245685262735093</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.66186250747</v>
+        <v>7.913180131988468</v>
       </c>
       <c r="M8">
-        <v>16.16403126446057</v>
+        <v>12.24573718774777</v>
       </c>
       <c r="N8">
-        <v>18.1921483336444</v>
+        <v>12.40838010217582</v>
       </c>
       <c r="O8">
-        <v>21.09735745024443</v>
+        <v>13.5312410383141</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.2641593107929</v>
+        <v>20.86137663282215</v>
       </c>
       <c r="C9">
-        <v>13.44055625217452</v>
+        <v>11.46667809873154</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.24072467835708</v>
+        <v>10.02636051248801</v>
       </c>
       <c r="F9">
-        <v>35.76477478599995</v>
+        <v>25.68884215156756</v>
       </c>
       <c r="G9">
-        <v>27.44558006574687</v>
+        <v>22.4012748308071</v>
       </c>
       <c r="H9">
-        <v>13.8841666842063</v>
+        <v>8.311059664439698</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.53901910951183</v>
+        <v>5.375099734752992</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.678942860434</v>
+        <v>8.303229241396117</v>
       </c>
       <c r="M9">
-        <v>16.39984053492392</v>
+        <v>13.55347716714978</v>
       </c>
       <c r="N9">
-        <v>18.08769003163704</v>
+        <v>12.1174067867356</v>
       </c>
       <c r="O9">
-        <v>20.973059576474</v>
+        <v>13.806143640401</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.97754604730559</v>
+        <v>22.72094279240131</v>
       </c>
       <c r="C10">
-        <v>13.51605074482988</v>
+        <v>11.75417262850604</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.1814892415271</v>
+        <v>9.994720152113395</v>
       </c>
       <c r="F10">
-        <v>35.76088027171566</v>
+        <v>26.65765018638409</v>
       </c>
       <c r="G10">
-        <v>27.48763595550621</v>
+        <v>23.53844772963155</v>
       </c>
       <c r="H10">
-        <v>13.82715046135472</v>
+        <v>8.320162091203748</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.562746967213966</v>
+        <v>5.468119546622919</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.69840246571009</v>
+        <v>8.592052409724348</v>
       </c>
       <c r="M10">
-        <v>16.57993681525885</v>
+        <v>14.45360086175047</v>
       </c>
       <c r="N10">
-        <v>18.0192499487496</v>
+        <v>11.92097386338493</v>
       </c>
       <c r="O10">
-        <v>20.90440542734165</v>
+        <v>14.07234615458814</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.29284410711431</v>
+        <v>23.52068909308545</v>
       </c>
       <c r="C11">
-        <v>13.55055683733536</v>
+        <v>11.88351919920432</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.15666338692122</v>
+        <v>9.985681865759696</v>
       </c>
       <c r="F11">
-        <v>35.76773185352226</v>
+        <v>27.11207716630354</v>
       </c>
       <c r="G11">
-        <v>27.51642247962797</v>
+        <v>24.07077456874134</v>
       </c>
       <c r="H11">
-        <v>13.80359289861052</v>
+        <v>8.331712090757978</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.57343859146651</v>
+        <v>5.509928663965287</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.7087322607727</v>
+        <v>8.723469689060167</v>
       </c>
       <c r="M11">
-        <v>16.66312964091167</v>
+        <v>14.84869574529958</v>
       </c>
       <c r="N11">
-        <v>17.98990746909915</v>
+        <v>11.83555144775418</v>
       </c>
       <c r="O11">
-        <v>20.87811893861292</v>
+        <v>14.20815899747543</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.41080923968893</v>
+        <v>23.81695792998919</v>
       </c>
       <c r="C12">
-        <v>13.56364251584231</v>
+        <v>11.93226658221783</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.14756683959048</v>
+        <v>9.983057013234651</v>
       </c>
       <c r="F12">
-        <v>35.77156366749431</v>
+        <v>27.28603534325079</v>
       </c>
       <c r="G12">
-        <v>27.52870753808123</v>
+        <v>24.27438564278254</v>
       </c>
       <c r="H12">
-        <v>13.79501457570224</v>
+        <v>8.337204472163906</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.577472006410003</v>
+        <v>5.5256829170854</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.71285413558557</v>
+        <v>8.773202310919928</v>
       </c>
       <c r="M12">
-        <v>16.69479523381878</v>
+        <v>14.99616274496857</v>
       </c>
       <c r="N12">
-        <v>17.97905303392034</v>
+        <v>11.80378742013373</v>
       </c>
       <c r="O12">
-        <v>20.86887760864871</v>
+        <v>14.26175625074803</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38546855521387</v>
+        <v>23.75344266547159</v>
       </c>
       <c r="C13">
-        <v>13.56082350935808</v>
+        <v>11.9217787493848</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.14951241033734</v>
+        <v>9.983586394842835</v>
       </c>
       <c r="F13">
-        <v>35.77068344343705</v>
+        <v>27.24848835436418</v>
       </c>
       <c r="G13">
-        <v>27.52600025336062</v>
+        <v>24.230446000726</v>
       </c>
       <c r="H13">
-        <v>13.79684683807781</v>
+        <v>8.335970989277424</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.576604026525464</v>
+        <v>5.522293504459709</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.71195710440396</v>
+        <v>8.762493489829385</v>
       </c>
       <c r="M13">
-        <v>16.6879685819417</v>
+        <v>14.96449967048969</v>
       </c>
       <c r="N13">
-        <v>17.98137931418255</v>
+        <v>11.81060211321851</v>
       </c>
       <c r="O13">
-        <v>20.87083616698895</v>
+        <v>14.25011595054463</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.30257841937852</v>
+        <v>23.54519477117251</v>
       </c>
       <c r="C14">
-        <v>13.55163304975909</v>
+        <v>11.88753450041007</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.15590890932749</v>
+        <v>9.985449768748996</v>
       </c>
       <c r="F14">
-        <v>35.76802232144605</v>
+        <v>27.12635173410335</v>
       </c>
       <c r="G14">
-        <v>27.51740546734215</v>
+        <v>24.0874857862142</v>
       </c>
       <c r="H14">
-        <v>13.80288029089093</v>
+        <v>8.33214122783056</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.573770732234861</v>
+        <v>5.511226367215535</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.70906717043152</v>
+        <v>8.727562068364684</v>
       </c>
       <c r="M14">
-        <v>16.66573165017689</v>
+        <v>14.86087137023575</v>
       </c>
       <c r="N14">
-        <v>17.98900932271426</v>
+        <v>11.83292639761006</v>
       </c>
       <c r="O14">
-        <v>20.87734435407784</v>
+        <v>14.21252475472804</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.25161647903856</v>
+        <v>23.41678219713648</v>
       </c>
       <c r="C15">
-        <v>13.54600596385991</v>
+        <v>11.86652775077738</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.15986658567713</v>
+        <v>9.986695861624147</v>
       </c>
       <c r="F15">
-        <v>35.76655333915604</v>
+        <v>27.05178114250478</v>
       </c>
       <c r="G15">
-        <v>27.51232102427014</v>
+        <v>24.00017928112057</v>
       </c>
       <c r="H15">
-        <v>13.80662055489264</v>
+        <v>8.329942650069029</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.572033252157094</v>
+        <v>5.504437123468172</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.70732430828381</v>
+        <v>8.706160322943935</v>
       </c>
       <c r="M15">
-        <v>16.65213142936586</v>
+        <v>14.79711436766204</v>
       </c>
       <c r="N15">
-        <v>17.99371636333081</v>
+        <v>11.84667722590525</v>
       </c>
       <c r="O15">
-        <v>20.88142368188128</v>
+        <v>14.18978280906426</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.95674573593061</v>
+        <v>22.66775357915893</v>
       </c>
       <c r="C16">
-        <v>13.51379859157555</v>
+        <v>11.74568829549379</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.18315430121409</v>
+        <v>9.995420937608218</v>
       </c>
       <c r="F16">
-        <v>35.76060581288294</v>
+        <v>26.62822002181702</v>
       </c>
       <c r="G16">
-        <v>27.48594866051286</v>
+        <v>23.50394988557158</v>
       </c>
       <c r="H16">
-        <v>13.82873790571613</v>
+        <v>8.319560910225762</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.562046138152676</v>
+        <v>5.46537659261446</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.69775693035331</v>
+        <v>8.583461402136972</v>
       </c>
       <c r="M16">
-        <v>16.57452375941626</v>
+        <v>14.42748402856151</v>
       </c>
       <c r="N16">
-        <v>18.02120353702351</v>
+        <v>11.92663707671236</v>
       </c>
       <c r="O16">
-        <v>20.90622296517596</v>
+        <v>14.06377116055884</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.77341126834829</v>
+        <v>22.19646535340631</v>
       </c>
       <c r="C17">
-        <v>13.4940790356729</v>
+        <v>11.67116976500776</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.1979833664694</v>
+        <v>10.00216457566629</v>
       </c>
       <c r="F17">
-        <v>35.75916415557869</v>
+        <v>26.37182227054479</v>
       </c>
       <c r="G17">
-        <v>27.4722406034881</v>
+        <v>23.20328138956934</v>
       </c>
       <c r="H17">
-        <v>13.84291579609636</v>
+        <v>8.315127552039302</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.555892769543503</v>
+        <v>5.441280870464022</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.69226451269285</v>
+        <v>8.50817047706316</v>
       </c>
       <c r="M17">
-        <v>16.52722424514687</v>
+        <v>14.19698395892621</v>
       </c>
       <c r="N17">
-        <v>18.03852433953284</v>
+        <v>11.97670980310817</v>
       </c>
       <c r="O17">
-        <v>20.92270428048616</v>
+        <v>13.99027511204609</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.6670993794447</v>
+        <v>21.92104234285477</v>
       </c>
       <c r="C18">
-        <v>13.48275250892499</v>
+        <v>11.62817500863291</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.20671228641539</v>
+        <v>10.00654569037333</v>
       </c>
       <c r="F18">
-        <v>35.75914683278504</v>
+        <v>26.22564525548467</v>
       </c>
       <c r="G18">
-        <v>27.4652652427387</v>
+        <v>23.0317659872221</v>
       </c>
       <c r="H18">
-        <v>13.85129448977729</v>
+        <v>8.313271802796555</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.55234391995963</v>
+        <v>5.427374315888894</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.68924463363759</v>
+        <v>8.464870004427519</v>
       </c>
       <c r="M18">
-        <v>16.50013919013833</v>
+        <v>14.06305695984439</v>
       </c>
       <c r="N18">
-        <v>18.04865544666364</v>
+        <v>12.00587959961033</v>
       </c>
       <c r="O18">
-        <v>20.93264921677556</v>
+        <v>13.94938460862844</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.63095919379366</v>
+        <v>21.8270397507535</v>
       </c>
       <c r="C19">
-        <v>13.47892036444657</v>
+        <v>11.61359560960301</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.20970205063876</v>
+        <v>10.00811450553382</v>
       </c>
       <c r="F19">
-        <v>35.75928047712195</v>
+        <v>26.17637779620213</v>
       </c>
       <c r="G19">
-        <v>27.46305974912855</v>
+        <v>22.97394200833964</v>
       </c>
       <c r="H19">
-        <v>13.8541698262885</v>
+        <v>8.312761088589443</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.551140709545955</v>
+        <v>5.422657826563291</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.68824613158394</v>
+        <v>8.45021120259047</v>
       </c>
       <c r="M19">
-        <v>16.49098992962109</v>
+        <v>14.01748249989646</v>
       </c>
       <c r="N19">
-        <v>18.05211464976271</v>
+        <v>12.01581891490925</v>
       </c>
       <c r="O19">
-        <v>20.93609626329745</v>
+        <v>13.93577554506015</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.79301762057138</v>
+        <v>22.24708459757059</v>
       </c>
       <c r="C20">
-        <v>13.49617662987566</v>
+        <v>11.67911642361386</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.19638412928633</v>
+        <v>10.00139451352653</v>
       </c>
       <c r="F20">
-        <v>35.75923361278766</v>
+        <v>26.39898279715132</v>
       </c>
       <c r="G20">
-        <v>27.4736057800181</v>
+        <v>23.23514194930733</v>
       </c>
       <c r="H20">
-        <v>13.84138335594033</v>
+        <v>8.315527258379127</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.55654880319275</v>
+        <v>5.443850838004362</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.69283479776727</v>
+        <v>8.516185093174423</v>
       </c>
       <c r="M20">
-        <v>16.53224704352389</v>
+        <v>14.22166137588628</v>
       </c>
       <c r="N20">
-        <v>18.03666306176902</v>
+        <v>11.97134113511859</v>
       </c>
       <c r="O20">
-        <v>20.92090164405651</v>
+        <v>13.99795541506091</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.32696489173724</v>
+        <v>23.60654023559914</v>
       </c>
       <c r="C21">
-        <v>13.55433203180982</v>
+        <v>11.89759940535343</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.15402184327126</v>
+        <v>9.984880576345049</v>
       </c>
       <c r="F21">
-        <v>35.76877040479773</v>
+        <v>27.16217603228349</v>
       </c>
       <c r="G21">
-        <v>27.51989243931647</v>
+        <v>24.12942254174882</v>
       </c>
       <c r="H21">
-        <v>13.80109882451951</v>
+        <v>8.33323533734883</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.574603358405457</v>
+        <v>5.514479209762595</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.70991032777705</v>
+        <v>8.73782342742177</v>
       </c>
       <c r="M21">
-        <v>16.67225893074181</v>
+        <v>14.89136833530402</v>
       </c>
       <c r="N21">
-        <v>17.98676123651694</v>
+        <v>11.826353224739</v>
       </c>
       <c r="O21">
-        <v>20.87541338380105</v>
+        <v>14.22350698409226</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.66754581092109</v>
+        <v>24.45671322705752</v>
       </c>
       <c r="C22">
-        <v>13.59244840217404</v>
+        <v>12.03901923138185</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.12811007075271</v>
+        <v>9.978750925606661</v>
       </c>
       <c r="F22">
-        <v>35.78221307100858</v>
+        <v>27.6718637638559</v>
       </c>
       <c r="G22">
-        <v>27.55820852251958</v>
+        <v>24.72566972970247</v>
       </c>
       <c r="H22">
-        <v>13.77676651869711</v>
+        <v>8.351353650771568</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.586313777172705</v>
+        <v>5.56018228700268</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.72229428058144</v>
+        <v>8.882473854275627</v>
       </c>
       <c r="M22">
-        <v>16.76470134265583</v>
+        <v>15.31652089286849</v>
       </c>
       <c r="N22">
-        <v>17.95564477343577</v>
+        <v>11.73500658263867</v>
       </c>
       <c r="O22">
-        <v>20.84983954245055</v>
+        <v>14.38357363349284</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.48657044025946</v>
+        <v>24.00644412027516</v>
       </c>
       <c r="C23">
-        <v>13.57209655416985</v>
+        <v>11.96367472858155</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.14177747039585</v>
+        <v>9.981586454814533</v>
       </c>
       <c r="F23">
-        <v>35.77437991298174</v>
+        <v>27.39886717166803</v>
       </c>
       <c r="G23">
-        <v>27.53702241327816</v>
+        <v>24.40640316135444</v>
       </c>
       <c r="H23">
-        <v>13.7895704159622</v>
+        <v>8.34106709499612</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.580072062178875</v>
+        <v>5.535833145392834</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.71557350350353</v>
+        <v>8.805301173628074</v>
       </c>
       <c r="M23">
-        <v>16.71528398318455</v>
+        <v>15.09077864533397</v>
       </c>
       <c r="N23">
-        <v>17.97211542750418</v>
+        <v>11.78344148035457</v>
       </c>
       <c r="O23">
-        <v>20.86310804040813</v>
+        <v>14.2969695895398</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.78415641652727</v>
+        <v>22.22421357483101</v>
       </c>
       <c r="C24">
-        <v>13.49522827446583</v>
+        <v>11.67552421395199</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.19710651052629</v>
+        <v>10.00174109052808</v>
       </c>
       <c r="F24">
-        <v>35.75919968322233</v>
+        <v>26.38669968627722</v>
       </c>
       <c r="G24">
-        <v>27.47298576259109</v>
+        <v>23.22073359736441</v>
       </c>
       <c r="H24">
-        <v>13.84207546307868</v>
+        <v>8.315344396483964</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.556252245209308</v>
+        <v>5.442689122245641</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.69257654253303</v>
+        <v>8.512561728263035</v>
       </c>
       <c r="M24">
-        <v>16.52997589825435</v>
+        <v>14.21050909955444</v>
       </c>
       <c r="N24">
-        <v>18.03750400605029</v>
+        <v>11.97376712038343</v>
       </c>
       <c r="O24">
-        <v>20.92171515331773</v>
+        <v>13.99447890751605</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.99402607784165</v>
+        <v>20.13521437587444</v>
       </c>
       <c r="C25">
-        <v>13.41292886530327</v>
+        <v>11.35971846659832</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.26442224593746</v>
+        <v>10.04257971088779</v>
       </c>
       <c r="F25">
-        <v>35.77386731021317</v>
+        <v>25.34486312316265</v>
       </c>
       <c r="G25">
-        <v>27.43866960807112</v>
+        <v>21.99671767977026</v>
       </c>
       <c r="H25">
-        <v>13.90727142272108</v>
+        <v>8.313924460555357</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.530194010368477</v>
+        <v>5.340430593952143</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.67310091788895</v>
+        <v>8.197150004097269</v>
       </c>
       <c r="M25">
-        <v>16.33477023785949</v>
+        <v>13.20987553770824</v>
       </c>
       <c r="N25">
-        <v>18.11448656746141</v>
+        <v>12.19312983928439</v>
       </c>
       <c r="O25">
-        <v>21.00271340667819</v>
+        <v>13.72077614192576</v>
       </c>
     </row>
   </sheetData>
